--- a/biology/Biochimie/Céride/Céride.xlsx
+++ b/biology/Biochimie/Céride/Céride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9ride</t>
+          <t>Céride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cérides sont des esters d'alcools gras (c'est-à-dire des alcools à longue chaîne carbonée) et d'acides gras. 
 Ce sont des homolipides (c'est-à-dire des lipides constitués uniquement de C, H et O).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9ride</t>
+          <t>Céride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Propriétés physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les cérides ont un point de fusion situé entre 60 et 100 °C.
 Ils sont très insolubles dans l'eau.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9ride</t>
+          <t>Céride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Rôles biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cérides ont un rôle d'imperméabilisation. 
 Ils forment la majeure partie des cires animales (abeille (palmitate de triacontanol), lubrifiant de la peau des mammifères, et sécrétion de la glande uropygienne des oiseaux) et végétales (cires de la cuticule, subérine des tissus subérifiés comme le liège, et des mycobactéries (dont celle responsable de la tuberculose)).
